--- a/DatasetsDescription/DatasetsDescription_DOnsetMin#0#Max#30_AgeMin#30#Max#70_Target#IOT+death_Std#PowerTransformer_DatasetMaskedByCCI_RegFixed#False.xlsx
+++ b/DatasetsDescription/DatasetsDescription_DOnsetMin#0#Max#30_AgeMin#30#Max#70_Target#IOT+death_Std#PowerTransformer_DatasetMaskedByCCI_RegFixed#False.xlsx
@@ -31,7 +31,7 @@
     <t>d. onset</t>
   </si>
   <si>
-    <t>CCI&lt;3</t>
+    <t>CCI&lt;2</t>
   </si>
   <si>
     <t>OTI+death</t>
@@ -55,43 +55,43 @@
     <t>BM+Dem</t>
   </si>
   <si>
-    <t>358</t>
-  </si>
-  <si>
-    <t>154</t>
-  </si>
-  <si>
-    <t>263</t>
+    <t>388</t>
+  </si>
+  <si>
+    <t>169</t>
+  </si>
+  <si>
+    <t>285</t>
   </si>
   <si>
     <t>1.8%</t>
   </si>
   <si>
-    <t>1.2%</t>
+    <t>2.1%</t>
   </si>
   <si>
     <t>0.9%</t>
   </si>
   <si>
-    <t>6.8%</t>
-  </si>
-  <si>
-    <t>3.5%</t>
-  </si>
-  <si>
-    <t>92(25.7%)</t>
-  </si>
-  <si>
-    <t>40(26.0%)</t>
-  </si>
-  <si>
-    <t>75(28.5%)</t>
-  </si>
-  <si>
-    <t>59(54-64)</t>
-  </si>
-  <si>
-    <t>58(52-64)</t>
+    <t>6.9%</t>
+  </si>
+  <si>
+    <t>4.9%</t>
+  </si>
+  <si>
+    <t>101(26.0%)</t>
+  </si>
+  <si>
+    <t>45(26.6%)</t>
+  </si>
+  <si>
+    <t>84(29.5%)</t>
+  </si>
+  <si>
+    <t>60(54-64)</t>
+  </si>
+  <si>
+    <t>57(52-63)</t>
   </si>
   <si>
     <t>59(52-64)</t>
@@ -100,22 +100,22 @@
     <t>9(7-12)</t>
   </si>
   <si>
-    <t>260(72.6%)</t>
-  </si>
-  <si>
-    <t>110(71.4%)</t>
-  </si>
-  <si>
-    <t>199(75.7%)</t>
-  </si>
-  <si>
-    <t>59(16.5%)</t>
-  </si>
-  <si>
-    <t>25(16.2%)</t>
-  </si>
-  <si>
-    <t>36(13.7%)</t>
+    <t>142(36.6%)</t>
+  </si>
+  <si>
+    <t>66(39.1%)</t>
+  </si>
+  <si>
+    <t>108(37.9%)</t>
+  </si>
+  <si>
+    <t>65(16.8%)</t>
+  </si>
+  <si>
+    <t>28(16.6%)</t>
+  </si>
+  <si>
+    <t>40(14.0%)</t>
   </si>
 </sst>
 </file>
@@ -562,7 +562,7 @@
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -588,7 +588,7 @@
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
